--- a/docs/ARTEFATOS(15-23)/ARTEFATOS(22,23)/MATRIZ DE RASTREABILIDADE.xlsx
+++ b/docs/ARTEFATOS(15-23)/ARTEFATOS(22,23)/MATRIZ DE RASTREABILIDADE.xlsx
@@ -1,19 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Plan1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet state="visible" name="Plan1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjQ9mKeTM1F3MLOMPVJzDK81WDU7Q=="/>
     </ext>
   </extLst>
 </workbook>
@@ -22,344 +18,318 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
   <si>
-    <t xml:space="preserve">Matriz de Rastreabilidade – Requisitos X Características</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car – 48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car - 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-001 – O sistema deve possuir um cardápio digital por meio de um aplicativo, no qual o garçom poderá consultar e mostrar o cardápio ao cliente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-002 – O sistema, quando solicitado, deve cadastrar um novo pedido, contendo itens, o valor de cada item e a quantidade dos mesmos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-003 – O sistema, quando solicitado, deve alterar itens dentro de um pedido, podendo alterar a quantidade, adicionar novos itens ou excluir itens.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-004 – O sistema, quando solicitado, deve cancelar o pedido, alterando seu status para “pedido cancelado” e excluindo-o do sistema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-005 – O sistema deve possuir comanda por meio de um aplicativo, no qual o garçom poderá registrar os itens da comanda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-006 – O sistema deverá enviar o pedido e suas informações à Cozinha logo após o garçom registrar o pedido no aplicativo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-007 – O sistema, quando solicitado, deve registrar o pagamento de um pedido.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-008 – O sistema, quando solicitado, deve alerta o cliente que seu pedido está pronto, através de um visor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-009 – O sistema, quando solicitado, deve contabilizar os pontos de fidelidade do cliente. Cada comanda finalizada gera um ponto na fidelização. No acúmulo de 10 pontos o cliente receberá um bônus.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0010 – O sistema, quando solicitado, deve registrar o nome do cliente, número de telefone dele e a quantia que ele está devendo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0011 – O sistema, quando solicitado, deve cadastrar produtos no sistema. Com informações como código de barras, descrição, quantidade, prazo de validade, categorias, unidade de medida, preço de compra e preço de venda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os produtos que pertencem a categoria de consignado terão um campo para sua identificação.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0012 – O sistema, quando solicitado, deve realizar o cadastro do produto, o sistema irá contabilizar a quantidade do item cadastrado. Ao receber um novo estoque, o sistema irá incrementar a quantidade existente com a nova.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0013 – O sistema, quando solicitado, deve atualizar produtos que são usados na cozinha, esses produtos podem ter sua quantidade atualizada utilizando o smartphone, o funcionário retira do estoque o produto x e no aplicativo ele registra o produto que foi retirado e a quantidade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O usuário poderá verificar os produtos e a quantidade de cada item armazenado no estoque.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0014 – O sistema, quando solicitado, deve cadastrar automaticamente o produto no sistema. As informações dos produtos poderão ser extraídos através do arquivo .XML da nota fiscal eletrônica.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0015 – O sistema, quando solicitado, deve alertar o usuário sobre os produtos que estão com a quantidade baixa e alta no estoque.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0016– O sistema, quando solicitado, deve adicionar em uma cotação todos os produtos que entrarem na zona de estoque baixo e enviar essa cotação automaticamente para os fornecedores que o Dono mais procura para comprar mercadorias.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0017– O sistema, quando solicitado, deve montar um relatório exibindo todos os produtos que estão com estoque zero.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0018 – O sistema, quando solicitado, deve montar um relatório contendo os produtos por categoria exibirá todos os produtos, filtrado por categoria.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0019 – O sistema, quando solicitado deve cadastrar fornecedores, com as seguintes informações: Código do fornecedor, Razão Social, Endereço, Estado, Município, Telefone, E-mail e a forma de pagamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0020 – O sistema, quando solicitado deve consultar fornecedores pela sua área de atuação, por exemplo, fornecedor 1: Categoria Açougue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultando também os fornecedores que possuem o melhor preço de venda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultando também sua classificação, os fornecedores serão classificados por pontuação baseado nos seguintes critérios: Prazo de entrega rápido, forma de pagamento e preço.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0021 – O sistema, quando solicitado deve excluir fornecedores cadastrados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0022 – O sistema, quando solicitado deve alterar informações sobre os fornecedores cadastrados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0023 – O sistema, quando solicitado deve exibir no relatório todos os produtos comercializados com intervalo de uma semana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0024 – O sistema, quando solicitado deve exibir no relatório todos os produtos comercializados no mês.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0025 – O sistema, quando solicitado deve incluir no movimento diário, todos os valores referentes a recebíveis que não são monitorados pelo sistema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0026 – O sistema, quando solicitado deve retirar do movimento diário, valores referentes a gastos, como o pagamento de uma conta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0027 – O sistema, quando solicitado deve permitir que o usuário ao iniciar o turno diariamente para registrar o movimento das operações. Será inserido o código do operador e o valor inicial do caixa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0028 – O sistema, quando solicitado deve exportar um relatório resumido com o valor total vendido no dia, assim que ele encerrar o turno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0029-O sistema, quando solicitado deve exportar um relatório O relatório diário exibirá todos os produtos e quantidades que foram comercializados no dia atual.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0030 – O sistema deve permitir acesso diferenciado aos usuários por cargos, restringindo acessos a campos dependendo da autorização do cargo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0031 – O sistema deve permitir o cadastro de produtos por categoria, como bebidas e cigarros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0032 – O sistema deve permitir a consulta de produtos pelo numero de demanda do mesmo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0033 – O sistema, quando solicitado, deve mostrar os fornecedores por ordem de produto com menor valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0034 – O sistema permitirá que o usuário pesquise por produtos por descrição, código de barras e palavras-chave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0035 – O sistema, quando feito um pedido, deverá cadastrar a qual mesa pertence o pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0036 – O sistema, quando solicitado, deve gerar um backup dos dados armazenados até o momento da solicitação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0037 – O sistema, quando solicitado, deve restaurar os dados ao ultimo backup feito.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0038 – O sistema, quando solicitado, deve permitir ao proprietário a criação de cargos para acesso dos funcionários</t>
+    <t>Matriz de Rastreabilidade – Requisitos X Características</t>
+  </si>
+  <si>
+    <t>Car – 01</t>
+  </si>
+  <si>
+    <t>Car – 02</t>
+  </si>
+  <si>
+    <t>Car – 03</t>
+  </si>
+  <si>
+    <t>Car – 04</t>
+  </si>
+  <si>
+    <t>Car – 05</t>
+  </si>
+  <si>
+    <t>Car – 06</t>
+  </si>
+  <si>
+    <t>Car - 07</t>
+  </si>
+  <si>
+    <t>Car - 08</t>
+  </si>
+  <si>
+    <t>Car - 09</t>
+  </si>
+  <si>
+    <t>Car - 10</t>
+  </si>
+  <si>
+    <t>Car – 11</t>
+  </si>
+  <si>
+    <t>Car - 12</t>
+  </si>
+  <si>
+    <t>Car - 13</t>
+  </si>
+  <si>
+    <t>Car - 14</t>
+  </si>
+  <si>
+    <t>Car - 15</t>
+  </si>
+  <si>
+    <t>Car - 16</t>
+  </si>
+  <si>
+    <t>Car - 17</t>
+  </si>
+  <si>
+    <t>Car - 18</t>
+  </si>
+  <si>
+    <t>Car - 19</t>
+  </si>
+  <si>
+    <t>Car – 20</t>
+  </si>
+  <si>
+    <t>Car – 21</t>
+  </si>
+  <si>
+    <t>Car - 22</t>
+  </si>
+  <si>
+    <t>Car - 23</t>
+  </si>
+  <si>
+    <t>Car - 24</t>
+  </si>
+  <si>
+    <t>Car - 25</t>
+  </si>
+  <si>
+    <t>Car - 26</t>
+  </si>
+  <si>
+    <t>Car - 27</t>
+  </si>
+  <si>
+    <t>Car - 28</t>
+  </si>
+  <si>
+    <t>Car - 29</t>
+  </si>
+  <si>
+    <t>Car – 30</t>
+  </si>
+  <si>
+    <t>Car - 31</t>
+  </si>
+  <si>
+    <t>Car - 32</t>
+  </si>
+  <si>
+    <t>Car – 33</t>
+  </si>
+  <si>
+    <t>Car - 34</t>
+  </si>
+  <si>
+    <t>Car - 35</t>
+  </si>
+  <si>
+    <t>Car – 36</t>
+  </si>
+  <si>
+    <t>Car – 37</t>
+  </si>
+  <si>
+    <t>Car – 38</t>
+  </si>
+  <si>
+    <t>Car - 39</t>
+  </si>
+  <si>
+    <t>Car - 40</t>
+  </si>
+  <si>
+    <t>Car - 41</t>
+  </si>
+  <si>
+    <t>Car - 42</t>
+  </si>
+  <si>
+    <t>Car - 43</t>
+  </si>
+  <si>
+    <t>Car - 44</t>
+  </si>
+  <si>
+    <t>Car - 45</t>
+  </si>
+  <si>
+    <t>Car - 46</t>
+  </si>
+  <si>
+    <t>Car – 47</t>
+  </si>
+  <si>
+    <t>Car – 48</t>
+  </si>
+  <si>
+    <t>Car - 49</t>
+  </si>
+  <si>
+    <t>Car - 50</t>
+  </si>
+  <si>
+    <t>SSS-001 – O sistema deve possuir um cardápio digital por meio de um aplicativo, no qual o garçom poderá consultar e mostrar o cardápio ao cliente.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>SSS-002 – O sistema, quando solicitado, deve cadastrar um novo pedido, contendo itens, o valor de cada item e a quantidade dos mesmos.</t>
+  </si>
+  <si>
+    <t>SSS-003 – O sistema, quando solicitado, deve alterar itens dentro de um pedido, podendo alterar a quantidade, adicionar novos itens ou excluir itens.</t>
+  </si>
+  <si>
+    <t>SSS-004 – O sistema, quando solicitado, deve cancelar o pedido, alterando seu status para “pedido cancelado” e excluindo-o do sistema.</t>
+  </si>
+  <si>
+    <t>SSS-005 – O sistema deve possuir comanda por meio de um aplicativo, no qual o garçom poderá registrar os itens da comanda.</t>
+  </si>
+  <si>
+    <t>SSS-006 – O sistema deverá enviar o pedido e suas informações à Cozinha logo após o garçom registrar o pedido no aplicativo.</t>
+  </si>
+  <si>
+    <t>SSS-007 – O sistema, quando solicitado, deve registrar o pagamento de um pedido.</t>
+  </si>
+  <si>
+    <t>SSS-008 – O sistema, quando solicitado, deve alerta o cliente que seu pedido está pronto, através de um visor.</t>
+  </si>
+  <si>
+    <t>SSS-009 – O sistema, quando solicitado, deve contabilizar os pontos de fidelidade do cliente. Cada comanda finalizada gera um ponto na fidelização. No acúmulo de 10 pontos o cliente receberá um bônus.</t>
+  </si>
+  <si>
+    <t>SSS-0010 – O sistema, quando solicitado, deve registrar o nome do cliente, número de telefone dele e a quantia que ele está devendo.</t>
+  </si>
+  <si>
+    <t>SSS-0011 – O sistema, quando solicitado, deve cadastrar produtos no sistema. Com informações como código de barras, descrição, quantidade, prazo de validade, categorias, unidade de medida, preço de compra e preço de venda.</t>
+  </si>
+  <si>
+    <t>Os produtos que pertencem a categoria de consignado terão um campo para sua identificação.</t>
+  </si>
+  <si>
+    <t>SSS-0012 – O sistema, quando solicitado, deve realizar o cadastro do produto, o sistema irá contabilizar a quantidade do item cadastrado. Ao receber um novo estoque, o sistema irá incrementar a quantidade existente com a nova.</t>
+  </si>
+  <si>
+    <t>SSS-0013 – O sistema, quando solicitado, deve atualizar produtos que são usados na cozinha, esses produtos podem ter sua quantidade atualizada utilizando o smartphone, o funcionário retira do estoque o produto x e no aplicativo ele registra o produto que foi retirado e a quantidade.</t>
+  </si>
+  <si>
+    <t>O usuário poderá verificar os produtos e a quantidade de cada item armazenado no estoque.</t>
+  </si>
+  <si>
+    <t>SSS-0014 – O sistema, quando solicitado, deve cadastrar automaticamente o produto no sistema. As informações dos produtos poderão ser extraídos através do arquivo .XML da nota fiscal eletrônica.</t>
+  </si>
+  <si>
+    <t>SSS-0015 – O sistema, quando solicitado, deve alertar o usuário sobre os produtos que estão com a quantidade baixa e alta no estoque.</t>
+  </si>
+  <si>
+    <t>SSS-0016– O sistema, quando solicitado, deve adicionar em uma cotação todos os produtos que entrarem na zona de estoque baixo e enviar essa cotação automaticamente para os fornecedores que o Dono mais procura para comprar mercadorias.</t>
+  </si>
+  <si>
+    <t>SSS-0017– O sistema, quando solicitado, deve montar um relatório exibindo todos os produtos que estão com estoque zero.</t>
+  </si>
+  <si>
+    <t>SSS-0018 – O sistema, quando solicitado, deve montar um relatório contendo os produtos por categoria exibirá todos os produtos, filtrado por categoria.</t>
+  </si>
+  <si>
+    <t>SSS-0019 – O sistema, quando solicitado deve cadastrar fornecedores, com as seguintes informações: Código do fornecedor, Razão Social, Endereço, Estado, Município, Telefone, E-mail e a forma de pagamento.</t>
+  </si>
+  <si>
+    <t>SSS-0020 – O sistema, quando solicitado deve consultar fornecedores pela sua área de atuação, por exemplo, fornecedor 1: Categoria Açougue.</t>
+  </si>
+  <si>
+    <t>Consultando também os fornecedores que possuem o melhor preço de venda.</t>
+  </si>
+  <si>
+    <t>Consultando também sua classificação, os fornecedores serão classificados por pontuação baseado nos seguintes critérios: Prazo de entrega rápido, forma de pagamento e preço.</t>
+  </si>
+  <si>
+    <t>SSS-0021 – O sistema, quando solicitado deve excluir fornecedores cadastrados.</t>
+  </si>
+  <si>
+    <t>SSS-0022 – O sistema, quando solicitado deve alterar informações sobre os fornecedores cadastrados.</t>
+  </si>
+  <si>
+    <t>SSS-0023 – O sistema, quando solicitado deve exibir no relatório todos os produtos comercializados com intervalo de uma semana.</t>
+  </si>
+  <si>
+    <t>SSS-0024 – O sistema, quando solicitado deve exibir no relatório todos os produtos comercializados no mês.</t>
+  </si>
+  <si>
+    <t>SSS-0025 – O sistema, quando solicitado deve incluir no movimento diário, todos os valores referentes a recebíveis que não são monitorados pelo sistema.</t>
+  </si>
+  <si>
+    <t>SSS-0026 – O sistema, quando solicitado deve retirar do movimento diário, valores referentes a gastos, como o pagamento de uma conta.</t>
+  </si>
+  <si>
+    <t>SSS-0027 – O sistema, quando solicitado deve permitir que o usuário ao iniciar o turno diariamente para registrar o movimento das operações. Será inserido o código do operador e o valor inicial do caixa.</t>
+  </si>
+  <si>
+    <t>SSS-0028 – O sistema, quando solicitado deve exportar um relatório resumido com o valor total vendido no dia, assim que ele encerrar o turno.</t>
+  </si>
+  <si>
+    <t>SSS-0029-O sistema, quando solicitado deve exportar um relatório O relatório diário exibirá todos os produtos e quantidades que foram comercializados no dia atual.</t>
+  </si>
+  <si>
+    <t>SSS-0030 – O sistema deve permitir acesso diferenciado aos usuários por cargos, restringindo acessos a campos dependendo da autorização do cargo</t>
+  </si>
+  <si>
+    <t>SSS-0031 – O sistema deve permitir o cadastro de produtos por categoria, como bebidas e cigarros</t>
+  </si>
+  <si>
+    <t>SSS-0032 – O sistema deve permitir a consulta de produtos pelo numero de demanda do mesmo</t>
+  </si>
+  <si>
+    <t>SSS-0033 – O sistema, quando solicitado, deve mostrar os fornecedores por ordem de produto com menor valor</t>
+  </si>
+  <si>
+    <t>SSS-0034 – O sistema permitirá que o usuário pesquise por produtos por descrição, código de barras e palavras-chave.</t>
+  </si>
+  <si>
+    <t>SSS-0035 – O sistema, quando feito um pedido, deverá cadastrar a qual mesa pertence o pedido</t>
+  </si>
+  <si>
+    <t>SSS-0036 – O sistema, quando solicitado, deve gerar um backup dos dados armazenados até o momento da solicitação</t>
+  </si>
+  <si>
+    <t>SSS-0037 – O sistema, quando solicitado, deve restaurar os dados ao ultimo backup feito.</t>
+  </si>
+  <si>
+    <t>SSS-0038 – O sistema, quando solicitado, deve permitir ao proprietário a criação de cargos para acesso dos funcionários</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFED7D31"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFED7D31"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
+      <b/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -367,36 +337,30 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFED7D31"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFBE4D5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBE4D5"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFBE4D5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="10">
+    <border/>
+    <border>
       <left style="medium">
         <color rgb="FFED7D31"/>
       </left>
@@ -407,9 +371,8 @@
       <bottom style="medium">
         <color rgb="FFED7D31"/>
       </bottom>
-      <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -418,9 +381,8 @@
       <bottom style="medium">
         <color rgb="FFED7D31"/>
       </bottom>
-      <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FFED7D31"/>
@@ -431,9 +393,8 @@
       <bottom style="medium">
         <color rgb="FFED7D31"/>
       </bottom>
-      <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFED7D31"/>
       </left>
@@ -446,9 +407,8 @@
       <bottom style="medium">
         <color rgb="FFED7D31"/>
       </bottom>
-      <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFF4B083"/>
       </left>
@@ -459,9 +419,27 @@
       <bottom style="medium">
         <color rgb="FFF4B083"/>
       </bottom>
-      <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B083"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4B083"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FFF4B083"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4B083"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4B083"/>
+      </right>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFF4B083"/>
       </left>
@@ -470,227 +448,310 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFF4B083"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="8" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFBE4D5"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF4B083"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="0000FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="23" style="0" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="63.14"/>
+    <col customWidth="1" min="2" max="19" width="9.14"/>
+    <col customWidth="1" min="20" max="20" width="7.43"/>
+    <col customWidth="1" min="21" max="22" width="9.14"/>
+    <col customWidth="1" min="23" max="51" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -843,7 +904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -908,7 +969,7 @@
       <c r="AX3" s="7"/>
       <c r="AY3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4">
       <c r="A4" s="9" t="s">
         <v>54</v>
       </c>
@@ -971,7 +1032,7 @@
       <c r="AX4" s="7"/>
       <c r="AY4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5">
       <c r="A5" s="10" t="s">
         <v>55</v>
       </c>
@@ -1030,7 +1091,7 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6">
       <c r="A6" s="9" t="s">
         <v>56</v>
       </c>
@@ -1089,7 +1150,7 @@
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="29.25" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
@@ -1154,7 +1215,7 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="32.25" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>58</v>
       </c>
@@ -1211,7 +1272,7 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9">
       <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
@@ -1274,7 +1335,7 @@
       <c r="AX9" s="7"/>
       <c r="AY9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="30.0" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
@@ -1331,7 +1392,7 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="42.75" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>61</v>
       </c>
@@ -1388,7 +1449,7 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="35.25" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>62</v>
       </c>
@@ -1443,31 +1504,26 @@
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="57.75" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
       <c r="F13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="13" t="s">
+      <c r="M13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="O13" s="7"/>
@@ -1508,23 +1564,10 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="35.25" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -1563,7 +1606,7 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="55.5" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>65</v>
       </c>
@@ -1620,7 +1663,7 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="66.75" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>66</v>
       </c>
@@ -1630,19 +1673,19 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="8" t="s">
         <v>53</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q16" s="7"/>
@@ -1681,7 +1724,7 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="30.0" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>67</v>
       </c>
@@ -1691,15 +1734,12 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="14"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="14"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="13"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -1736,7 +1776,7 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="44.25" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>68</v>
       </c>
@@ -1793,7 +1833,7 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="30.75" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>69</v>
       </c>
@@ -1850,7 +1890,7 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20">
       <c r="A20" s="9" t="s">
         <v>70</v>
       </c>
@@ -1907,7 +1947,7 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="30.75" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
@@ -1964,7 +2004,7 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="43.5" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>72</v>
       </c>
@@ -2021,7 +2061,7 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="41.25" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>73</v>
       </c>
@@ -2078,8 +2118,8 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="6"/>
@@ -2104,14 +2144,14 @@
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y24" s="13" t="s">
+      <c r="X24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y24" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Z24" s="7"/>
-      <c r="AA24" s="13" t="s">
+      <c r="AA24" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AB24" s="7"/>
@@ -2139,8 +2179,8 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="6"/>
@@ -2165,10 +2205,7 @@
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="13"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
@@ -2194,7 +2231,7 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>76</v>
       </c>
@@ -2220,10 +2257,7 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
       <c r="Z26" s="7"/>
-      <c r="AA26" s="13"/>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
@@ -2249,7 +2283,7 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="33.0" customHeight="1">
       <c r="A27" s="10" t="s">
         <v>77</v>
       </c>
@@ -2277,7 +2311,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
-      <c r="Z27" s="13" t="s">
+      <c r="Z27" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AA27" s="7"/>
@@ -2306,7 +2340,7 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="32.25" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>78</v>
       </c>
@@ -2334,7 +2368,6 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
-      <c r="Z28" s="13"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
@@ -2361,8 +2394,8 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+    <row r="29" ht="32.25" customHeight="1">
+      <c r="A29" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B29" s="6"/>
@@ -2418,8 +2451,8 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+    <row r="30" ht="31.5" customHeight="1">
+      <c r="A30" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="6"/>
@@ -2477,8 +2510,8 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B31" s="6"/>
@@ -2534,8 +2567,8 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+    <row r="32" ht="30.75" customHeight="1">
+      <c r="A32" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="6"/>
@@ -2591,8 +2624,8 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+    <row r="33" ht="51.0" customHeight="1">
+      <c r="A33" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B33" s="6"/>
@@ -2648,8 +2681,8 @@
       </c>
       <c r="AY33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+    <row r="34" ht="48.0" customHeight="1">
+      <c r="A34" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="6"/>
@@ -2705,65 +2738,65 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+    <row r="35" ht="58.5" customHeight="1">
+      <c r="A35" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="18" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="12" t="s">
         <v>53</v>
       </c>
       <c r="AQ35" s="19"/>
-      <c r="AR35" s="17"/>
-      <c r="AS35" s="17"/>
-      <c r="AT35" s="17"/>
-      <c r="AU35" s="17"/>
-      <c r="AV35" s="17"/>
-      <c r="AW35" s="17"/>
-      <c r="AX35" s="17"/>
-      <c r="AY35" s="17"/>
-    </row>
-    <row r="36" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="AR35" s="18"/>
+      <c r="AS35" s="18"/>
+      <c r="AT35" s="18"/>
+      <c r="AU35" s="18"/>
+      <c r="AV35" s="18"/>
+      <c r="AW35" s="18"/>
+      <c r="AX35" s="18"/>
+      <c r="AY35" s="18"/>
+    </row>
+    <row r="36" ht="41.25" customHeight="1">
+      <c r="A36" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -2773,48 +2806,48 @@
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+    <row r="37" ht="50.25" customHeight="1">
+      <c r="A37" s="14" t="s">
         <v>87</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+    <row r="38" ht="39.0" customHeight="1">
+      <c r="A38" s="15" t="s">
         <v>88</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
+    <row r="39" ht="30.0" customHeight="1">
+      <c r="A39" s="14" t="s">
         <v>89</v>
       </c>
       <c r="U39" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+    <row r="40" ht="38.25" customHeight="1">
+      <c r="A40" s="15" t="s">
         <v>90</v>
       </c>
       <c r="V40" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
+    <row r="41" ht="41.25" customHeight="1">
+      <c r="A41" s="14" t="s">
         <v>91</v>
       </c>
       <c r="W41" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+    <row r="42" ht="34.5" customHeight="1">
+      <c r="A42" s="15" t="s">
         <v>92</v>
       </c>
       <c r="AQ42" s="8"/>
@@ -2822,985 +2855,981 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
+    <row r="43" ht="30.0" customHeight="1">
+      <c r="A43" s="14" t="s">
         <v>93</v>
       </c>
       <c r="AW43" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+    <row r="44" ht="32.25" customHeight="1">
+      <c r="A44" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
+  <mergeCells count="15">
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="P16:P17"/>
@@ -3808,13 +3837,17 @@
     <mergeCell ref="Y24:Y26"/>
     <mergeCell ref="AA24:AA26"/>
     <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions/>
+  <pageMargins bottom="0.7875" footer="0.0" header="0.0" left="0.511805555555555" right="0.511805555555555" top="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>